--- a/biology/Biologie cellulaire et moléculaire/Colossal_Biosciences/Colossal_Biosciences.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Colossal_Biosciences/Colossal_Biosciences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Colossal Biosciences est une société de biotechnologie et de génie génétique qui travaille à ressusciter génétiquement le mammouth laineux, le tigre de Tasmanie et le Dodo[1],[2],[3],[4],[5],[6]. Elle prétend pouvoir obtenir les premiers petits hybrides de mammouth laineux d'ici 2027 et ambitionne de les réintroduire dans l'habitat de la toundra arctique pour restaurer les prairies steppiques de mammouth et lutter contre le changement climatique. Les éléphants d'Asie en voie de disparition auraient des traits de mammouth[7]. De même, elle prévoit de lancer un projet de recherche sur le thylacine pour réintroduire des bébés tigres de Tasmanie dans leur habitat d'origine après une période d'observation en captivité.
-La société développe le génie génétique et les technologies de reproduction pour la biologie de la conservation. Elle a été fondée en 2021 par George Church et Ben Lamm (en)[3].
+Colossal Biosciences est une société de biotechnologie et de génie génétique qui travaille à ressusciter génétiquement le mammouth laineux, le tigre de Tasmanie et le Dodo. Elle prétend pouvoir obtenir les premiers petits hybrides de mammouth laineux d'ici 2027 et ambitionne de les réintroduire dans l'habitat de la toundra arctique pour restaurer les prairies steppiques de mammouth et lutter contre le changement climatique. Les éléphants d'Asie en voie de disparition auraient des traits de mammouth. De même, elle prévoit de lancer un projet de recherche sur le thylacine pour réintroduire des bébés tigres de Tasmanie dans leur habitat d'origine après une période d'observation en captivité.
+La société développe le génie génétique et les technologies de reproduction pour la biologie de la conservation. Elle a été fondée en 2021 par George Church et Ben Lamm (en).
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Sciences et développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parce que le mammouth laineux et l'éléphant d'Asie partagent 99,6 % du leur génome, Colossal vise à développer une espèce proxy en échangeant suffisamment de gènes clés de mammouth dans le génome de l'éléphant d'Asie[4]. Les principaux traits généalogiques du mammouth comprennent : une couche de graisse isolante de 10 cm, cinq types différents de poils hirsutes et des oreilles plus petites pour aider l'hybride à tolérer le froid[8].
-Le laboratoire de Colossal associera CRISPR/Cas9 à d'autres enzymes d'édition d'ADN, telles que les intégrases, les recombinases et les désaminases, pour épisser les gènes du mammouth laineux dans l'éléphant d'Asie[9]. La société prévoit de séquencer des échantillons d'éléphants et de mammouths afin d'identifier les gènes clés des deux espèces afin de promouvoir la diversification des populations. Ce faisant, Colossal espère empêcher toute mutation indésirable au sein du troupeau hybride[9].
-La société prévoit d'utiliser des éléphants d'Afrique et d'Asie comme substituts potentiels et prévoit en grande partie de développer des utérus d'éléphant artificiels doublés de tissu utérin comme voie parallèle à la gestation[3],[4],[10]. Des scientifiques de Colossal prévoient de créer ces embryons en prélevant des cellules cutanées d'éléphants d'Asie et en les reprogrammant en cellules souches pluripotentes induites qui portent l'ADN de mammouth[4],[7]. Lamm a déclaré que Colossal utilisera à la fois des cellules souches pluripotentes induites ainsi que le transfert nucléaire de cellules somatiques dans le processus[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parce que le mammouth laineux et l'éléphant d'Asie partagent 99,6 % du leur génome, Colossal vise à développer une espèce proxy en échangeant suffisamment de gènes clés de mammouth dans le génome de l'éléphant d'Asie. Les principaux traits généalogiques du mammouth comprennent : une couche de graisse isolante de 10 cm, cinq types différents de poils hirsutes et des oreilles plus petites pour aider l'hybride à tolérer le froid.
+Le laboratoire de Colossal associera CRISPR/Cas9 à d'autres enzymes d'édition d'ADN, telles que les intégrases, les recombinases et les désaminases, pour épisser les gènes du mammouth laineux dans l'éléphant d'Asie. La société prévoit de séquencer des échantillons d'éléphants et de mammouths afin d'identifier les gènes clés des deux espèces afin de promouvoir la diversification des populations. Ce faisant, Colossal espère empêcher toute mutation indésirable au sein du troupeau hybride.
+La société prévoit d'utiliser des éléphants d'Afrique et d'Asie comme substituts potentiels et prévoit en grande partie de développer des utérus d'éléphant artificiels doublés de tissu utérin comme voie parallèle à la gestation. Des scientifiques de Colossal prévoient de créer ces embryons en prélevant des cellules cutanées d'éléphants d'Asie et en les reprogrammant en cellules souches pluripotentes induites qui portent l'ADN de mammouth,. Lamm a déclaré que Colossal utilisera à la fois des cellules souches pluripotentes induites ainsi que le transfert nucléaire de cellules somatiques dans le processus.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022, Colossal a été répertorié comme l'un des pionniers technologiques du Forum économique mondial et a été nommé Innovation génomique de l'année par les BioTech Breakthrough Awards[12],[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, Colossal a été répertorié comme l'un des pionniers technologiques du Forum économique mondial et a été nommé Innovation génomique de l'année par les BioTech Breakthrough Awards,.
 </t>
         </is>
       </c>
